--- a/Big O.xlsx
+++ b/Big O.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YH\source\repos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YH\source\repos\Big O\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7833628-89C8-47BD-BC1D-8F0132CF30FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055F6768-AEB1-4D84-9773-A4091829CFA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{5818238B-E921-4A22-A2B3-ADFC95F90FF8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="30">
   <si>
     <t>Data Structure</t>
   </si>
@@ -85,6 +85,42 @@
   </si>
   <si>
     <t>O(log(n))</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Binary Serach Tree</t>
+  </si>
+  <si>
+    <t>O(nlog(n))</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>O(|V|+|E|)</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>Inorder</t>
+  </si>
+  <si>
+    <t>postorder</t>
+  </si>
+  <si>
+    <t>preorder</t>
   </si>
 </sst>
 </file>
@@ -452,18 +488,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51317075-BBB1-4545-B768-F690530931C7}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +518,20 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -496,8 +548,20 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -526,8 +590,20 @@
       <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -558,8 +634,20 @@
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -590,8 +678,20 @@
       <c r="J5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -622,8 +722,20 @@
       <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -654,8 +766,20 @@
       <c r="J7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -686,8 +810,20 @@
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -698,6 +834,18 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
